--- a/data/EnemyTeamConfig.xlsx
+++ b/data/EnemyTeamConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1CF59-E9E9-44EE-9CAE-06AD0521B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB17ECB-5300-416F-91BA-0B82ED805387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19425" yWindow="4350" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>string</t>
   </si>
@@ -29,6 +29,38 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人id数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_team_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_team_002</t>
+  </si>
+  <si>
+    <t>enemy_team_003</t>
+  </si>
+  <si>
+    <t>enemy_team_004</t>
+  </si>
+  <si>
+    <t>enemy_team_005</t>
+  </si>
+  <si>
+    <t>["enemy_001","enemy_001"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,25 +601,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/EnemyTeamConfig.xlsx
+++ b/data/EnemyTeamConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB17ECB-5300-416F-91BA-0B82ED805387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954573A9-CCD3-4AB7-BD90-B0FBB4367511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="4350" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18495" yWindow="4695" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>string</t>
   </si>
@@ -48,19 +48,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>enemy_team_003</t>
+  </si>
+  <si>
+    <t>enemy_team_004</t>
+  </si>
+  <si>
+    <t>enemy_team_005</t>
+  </si>
+  <si>
+    <t>["enemy_001","enemy_001"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enemy_team_002</t>
-  </si>
-  <si>
-    <t>enemy_team_003</t>
-  </si>
-  <si>
-    <t>enemy_team_004</t>
-  </si>
-  <si>
-    <t>enemy_team_005</t>
-  </si>
-  <si>
-    <t>["enemy_001","enemy_001"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["enemy_002"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +609,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,27 +647,30 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/EnemyTeamConfig.xlsx
+++ b/data/EnemyTeamConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954573A9-CCD3-4AB7-BD90-B0FBB4367511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E12D2-B555-41A8-8FB4-E6275820DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18495" yWindow="4695" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17235" yWindow="4515" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
